--- a/REGULAR/CHO/HERNANDEZ, DARREL JESUS MIRANDA.xlsx
+++ b/REGULAR/CHO/HERNANDEZ, DARREL JESUS MIRANDA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>PERIOD</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>4/13,14/2023</t>
+  </si>
+  <si>
+    <t>A(5-0-0)</t>
+  </si>
+  <si>
+    <t>2/1,2,14,15,16/2023</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1095,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1132,7 +1138,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1196,7 +1202,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1256,7 +1262,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1322,7 +1328,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1385,7 +1391,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1483,7 +1489,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1542,7 +1548,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1607,7 +1613,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1650,7 +1656,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1725,7 +1731,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1911,7 +1917,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1977,7 +1983,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2035,7 +2041,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2101,7 +2107,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2157,7 +2163,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2232,7 +2238,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2275,7 +2281,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2341,7 +2347,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2397,7 +2403,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2495,7 +2501,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2558,7 +2564,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3007,7 +3013,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A4" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3172,7 +3178,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>3.9400000000000013</v>
+        <v>-1.0599999999999987</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3233,11 +3239,15 @@
       <c r="A12" s="40">
         <v>44958</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C12" s="13">
         <v>1.25</v>
       </c>
-      <c r="D12" s="39"/>
+      <c r="D12" s="39">
+        <v>5</v>
+      </c>
       <c r="E12" s="9"/>
       <c r="F12" s="20"/>
       <c r="G12" s="13">
@@ -3247,7 +3257,9 @@
       <c r="H12" s="39"/>
       <c r="I12" s="9"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="20"/>
+      <c r="K12" s="20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
@@ -5491,7 +5503,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="50">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>18.315000000000001</v>
+        <v>13.315000000000001</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CHO/HERNANDEZ, DARREL JESUS MIRANDA.xlsx
+++ b/REGULAR/CHO/HERNANDEZ, DARREL JESUS MIRANDA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
   <si>
     <t>PERIOD</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>2/1,2,14,15,16/2023</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1098,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1138,7 +1141,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1202,7 +1205,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1262,7 +1265,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1328,7 +1331,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1391,7 +1394,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1489,7 +1492,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1548,7 +1551,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1613,7 +1616,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1656,7 +1659,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1731,7 +1734,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1917,7 +1920,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1983,7 +1986,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2041,7 +2044,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2107,7 +2110,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2163,7 +2166,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2238,7 +2241,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2281,7 +2284,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2347,7 +2350,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2403,7 +2406,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2501,7 +2504,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2564,7 +2567,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3013,7 +3016,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A4" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3178,7 +3181,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-1.0599999999999987</v>
+        <v>0.19000000000000128</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3188,7 +3191,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>14.375</v>
+        <v>14.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3540,15 +3543,17 @@
       <c r="B25" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="13"/>
+      <c r="C25" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D25" s="39">
         <v>1</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G25" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H25" s="39"/>
       <c r="I25" s="9"/>
@@ -3561,7 +3566,9 @@
       <c r="A26" s="40">
         <v>45323</v>
       </c>
-      <c r="B26" s="20"/>
+      <c r="B26" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C26" s="13"/>
       <c r="D26" s="39"/>
       <c r="E26" s="9"/>
@@ -3570,10 +3577,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H26" s="39"/>
+      <c r="H26" s="39">
+        <v>1</v>
+      </c>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="20"/>
+      <c r="K26" s="48">
+        <v>45324</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
@@ -5503,7 +5514,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="50">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>13.315000000000001</v>
+        <v>14.815000000000001</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
